--- a/biology/Botanique/Thalictrum/Thalictrum.xlsx
+++ b/biology/Botanique/Thalictrum/Thalictrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thalictrum est un genre de plantes de la famille des Renonculacées.
 Ce genre regroupe des plantes vivaces herbacées dont quelques espèces (étaient ou) sont encore appelées « pigamons », cultivées comme plantes ornementales rustiques au jardin.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Thalictrum vient du grec thalia, « jeune pousse » (du  grec thallô, « verdoyer ») et iktar, « tout à la fois » en référence à la rapidité de la végétation de la plante. Le nom vernaculaire Pigamon vient du grec pêgnumi, « fixer, coaguler » en référence aux propriétés de la plante qui coagule le sang[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Thalictrum vient du grec thalia, « jeune pousse » (du  grec thallô, « verdoyer ») et iktar, « tout à la fois » en référence à la rapidité de la végétation de la plante. Le nom vernaculaire Pigamon vient du grec pêgnumi, « fixer, coaguler » en référence aux propriétés de la plante qui coagule le sang.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces sont depuis plusieurs siècles cultivées pour l'attrait de leur floraison, notamment dans les plates-bandes mélangées où le pigamon apporte de la légèreté aux compositions estivales, notamment les espèces ci-dessous.
 	Quelques pigamons
@@ -585,12 +601,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG III (2009)[2] comme en classification classique de Cronquist (1981)[3], ce genre fait partie de la famille des Ranunculaceae. Il a été décrit dès 1753 par le naturaliste suédois Carl von Linné (1707-1778).
-L'espèce type de ce genre est Thalictrum foetidum L.[4].
-Liste d'espèces
-Selon GRIN            (19 mars 2017)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG III (2009) comme en classification classique de Cronquist (1981), ce genre fait partie de la famille des Ranunculaceae. Il a été décrit dès 1753 par le naturaliste suédois Carl von Linné (1707-1778).
+L'espèce type de ce genre est Thalictrum foetidum L..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thalictrum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thalictrum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (19 mars 2017) :
 Thalictrum actaeifolium Siebold &amp; Zucc.
 Thalictrum alpinum L.
 Thalictrum amphibolum Greene
@@ -638,7 +691,7 @@
 Thalictrum tuberosum L.
 Thalictrum uchiyamae Nakai
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (19 mars 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (19 mars 2017) (Attention liste brute contenant possiblement des synonymes) :
 Thalictrum acutifolium (Hand.-Mazz.) B. Boivin
 Thalictrum aduncum B. Boivin
 Thalictrum affine Ledeb.
